--- a/ams/cases/ieee39/ieee39_uced_esd1.xlsx
+++ b/ams/cases/ieee39/ieee39_uced_esd1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5637C68-6D31-B148-9F7F-BA9B0524190D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DB4B91-D7FC-6A46-9AE1-67FB53624CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="510">
   <si>
     <t>idx</t>
   </si>
@@ -1690,6 +1690,12 @@
       </rPr>
       <t>ESD1_1</t>
     </r>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>1, 1, 1, 1, 1, 1, 1, 1, 1, 1</t>
   </si>
 </sst>
 </file>
@@ -2671,18 +2677,19 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E68EB-A0F6-9442-8602-C20717626DB0}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScale="159" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F25"/>
+    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2695,8 +2702,11 @@
       <c r="D1" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16">
+      <c r="E1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" t="s">
         <v>198</v>
       </c>
@@ -2709,8 +2719,11 @@
       <c r="D2" s="8" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16">
+      <c r="E2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" t="s">
         <v>188</v>
       </c>
@@ -2723,8 +2736,11 @@
       <c r="D3" s="8" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16">
+      <c r="E3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16">
       <c r="A4" t="s">
         <v>189</v>
       </c>
@@ -2737,8 +2753,11 @@
       <c r="D4" s="8" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="16">
+      <c r="E4" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16">
       <c r="A5" t="s">
         <v>190</v>
       </c>
@@ -2751,8 +2770,11 @@
       <c r="D5" s="8" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="16">
+      <c r="E5" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16">
       <c r="A6" t="s">
         <v>191</v>
       </c>
@@ -2765,8 +2787,11 @@
       <c r="D6" s="8" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16">
+      <c r="E6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16">
       <c r="A7" t="s">
         <v>192</v>
       </c>
@@ -2779,8 +2804,11 @@
       <c r="D7" s="8" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="16">
+      <c r="E7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16">
       <c r="A8" t="s">
         <v>193</v>
       </c>
@@ -2793,8 +2821,11 @@
       <c r="D8" s="8" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16">
+      <c r="E8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16">
       <c r="A9" t="s">
         <v>194</v>
       </c>
@@ -2807,8 +2838,11 @@
       <c r="D9" s="8" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="16">
+      <c r="E9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16">
       <c r="A10" t="s">
         <v>195</v>
       </c>
@@ -2821,8 +2855,11 @@
       <c r="D10" s="8" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="16">
+      <c r="E10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16">
       <c r="A11" t="s">
         <v>196</v>
       </c>
@@ -2835,8 +2872,11 @@
       <c r="D11" s="8" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="16">
+      <c r="E11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16">
       <c r="A12" t="s">
         <v>197</v>
       </c>
@@ -2849,8 +2889,11 @@
       <c r="D12" s="8" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="16">
+      <c r="E12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16">
       <c r="A13" t="s">
         <v>208</v>
       </c>
@@ -2863,8 +2906,11 @@
       <c r="D13" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="16">
+      <c r="E13" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -2877,8 +2923,11 @@
       <c r="D14" s="8" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="16">
+      <c r="E14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16">
       <c r="A15" t="s">
         <v>210</v>
       </c>
@@ -2891,8 +2940,11 @@
       <c r="D15" s="8" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="16">
+      <c r="E15" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16">
       <c r="A16" t="s">
         <v>211</v>
       </c>
@@ -2905,8 +2957,11 @@
       <c r="D16" s="8" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="16">
+      <c r="E16" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16">
       <c r="A17" t="s">
         <v>212</v>
       </c>
@@ -2919,8 +2974,11 @@
       <c r="D17" s="8" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="16">
+      <c r="E17" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -2933,8 +2991,11 @@
       <c r="D18" s="8" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="16">
+      <c r="E18" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16">
       <c r="A19" t="s">
         <v>214</v>
       </c>
@@ -2947,8 +3008,11 @@
       <c r="D19" s="8" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="16">
+      <c r="E19" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16">
       <c r="A20" t="s">
         <v>215</v>
       </c>
@@ -2961,8 +3025,11 @@
       <c r="D20" s="8" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="16">
+      <c r="E20" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16">
       <c r="A21" t="s">
         <v>216</v>
       </c>
@@ -2975,8 +3042,11 @@
       <c r="D21" s="8" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="16">
+      <c r="E21" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -2989,8 +3059,11 @@
       <c r="D22" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="16">
+      <c r="E22" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16">
       <c r="A23" t="s">
         <v>218</v>
       </c>
@@ -3003,8 +3076,11 @@
       <c r="D23" s="8" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="16">
+      <c r="E23" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16">
       <c r="A24" t="s">
         <v>219</v>
       </c>
@@ -3017,8 +3093,11 @@
       <c r="D24" s="8" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="16">
+      <c r="E24" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16">
       <c r="A25" t="s">
         <v>220</v>
       </c>
@@ -3030,6 +3109,9 @@
       </c>
       <c r="D25" s="8" t="s">
         <v>257</v>
+      </c>
+      <c r="E25" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -3043,7 +3125,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7914,8 +7996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69F834D-4F7F-E842-928A-E7665251B809}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/ams/cases/ieee39/ieee39_uced_esd1.xlsx
+++ b/ams/cases/ieee39/ieee39_uced_esd1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DB4B91-D7FC-6A46-9AE1-67FB53624CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9880861E-9B83-D348-94F3-90573B00ABAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="7420" windowWidth="21600" windowHeight="18940" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -2679,7 +2679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7E68EB-A0F6-9442-8602-C20717626DB0}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+    <sheetView zoomScale="159" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -7996,8 +7996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69F834D-4F7F-E842-928A-E7665251B809}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/ams/cases/ieee39/ieee39_uced_esd1.xlsx
+++ b/ams/cases/ieee39/ieee39_uced_esd1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9880861E-9B83-D348-94F3-90573B00ABAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D905FA-731F-9642-95A5-D601526A09EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="7420" windowWidth="21600" windowHeight="18940" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="SRCost" sheetId="20" r:id="rId16"/>
     <sheet name="NSR" sheetId="19" r:id="rId17"/>
     <sheet name="NSRCost" sheetId="21" r:id="rId18"/>
+    <sheet name="DCost" sheetId="23" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="551">
   <si>
     <t>idx</t>
   </si>
@@ -1696,6 +1697,129 @@
   </si>
   <si>
     <t>1, 1, 1, 1, 1, 1, 1, 1, 1, 1</t>
+  </si>
+  <si>
+    <t>ctrl</t>
+  </si>
+  <si>
+    <t>pq</t>
+  </si>
+  <si>
+    <t>cdp</t>
+  </si>
+  <si>
+    <t>DCost_1</t>
+  </si>
+  <si>
+    <t>Dcost 1</t>
+  </si>
+  <si>
+    <t>DCost_2</t>
+  </si>
+  <si>
+    <t>Dcost 2</t>
+  </si>
+  <si>
+    <t>DCost_3</t>
+  </si>
+  <si>
+    <t>Dcost 3</t>
+  </si>
+  <si>
+    <t>DCost_4</t>
+  </si>
+  <si>
+    <t>Dcost 4</t>
+  </si>
+  <si>
+    <t>DCost_5</t>
+  </si>
+  <si>
+    <t>Dcost 5</t>
+  </si>
+  <si>
+    <t>DCost_6</t>
+  </si>
+  <si>
+    <t>Dcost 6</t>
+  </si>
+  <si>
+    <t>DCost_7</t>
+  </si>
+  <si>
+    <t>Dcost 7</t>
+  </si>
+  <si>
+    <t>DCost_8</t>
+  </si>
+  <si>
+    <t>Dcost 8</t>
+  </si>
+  <si>
+    <t>DCost_9</t>
+  </si>
+  <si>
+    <t>Dcost 9</t>
+  </si>
+  <si>
+    <t>DCost_10</t>
+  </si>
+  <si>
+    <t>Dcost 10</t>
+  </si>
+  <si>
+    <t>DCost_11</t>
+  </si>
+  <si>
+    <t>Dcost 11</t>
+  </si>
+  <si>
+    <t>DCost_12</t>
+  </si>
+  <si>
+    <t>Dcost 12</t>
+  </si>
+  <si>
+    <t>DCost_13</t>
+  </si>
+  <si>
+    <t>Dcost 13</t>
+  </si>
+  <si>
+    <t>DCost_14</t>
+  </si>
+  <si>
+    <t>Dcost 14</t>
+  </si>
+  <si>
+    <t>DCost_15</t>
+  </si>
+  <si>
+    <t>Dcost 15</t>
+  </si>
+  <si>
+    <t>DCost_16</t>
+  </si>
+  <si>
+    <t>Dcost 16</t>
+  </si>
+  <si>
+    <t>DCost_17</t>
+  </si>
+  <si>
+    <t>Dcost 17</t>
+  </si>
+  <si>
+    <t>DCost_18</t>
+  </si>
+  <si>
+    <t>Dcost 18</t>
+  </si>
+  <si>
+    <t>DCost_19</t>
+  </si>
+  <si>
+    <t>Dcost 19</t>
   </si>
 </sst>
 </file>
@@ -1817,7 +1941,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1866,11 +1990,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1902,6 +2037,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4369,6 +4507,421 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35761997-D17D-4943-96DB-22901D50CC4D}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>518</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>520</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>522</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>523</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>524</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>526</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>527</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>528</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>530</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>532</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>533</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>534</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>535</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>536</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>537</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>538</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>539</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>540</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>541</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>542</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>543</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>544</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>545</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>546</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>547</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>548</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>549</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>550</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N40"/>
@@ -6030,16 +6583,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView zoomScale="159" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -6073,8 +6626,11 @@
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="16" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6108,8 +6664,11 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6143,8 +6702,11 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6178,8 +6740,11 @@
       <c r="K4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6213,8 +6778,11 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6248,8 +6816,11 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6283,8 +6854,11 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6318,8 +6892,11 @@
       <c r="K8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6353,8 +6930,11 @@
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6388,8 +6968,11 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6423,8 +7006,11 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6458,8 +7044,11 @@
       <c r="K12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6493,8 +7082,11 @@
       <c r="K13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6528,8 +7120,11 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6563,8 +7158,11 @@
       <c r="K15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6598,8 +7196,11 @@
       <c r="K16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6633,8 +7234,11 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6668,8 +7272,11 @@
       <c r="K18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6703,8 +7310,11 @@
       <c r="K19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6736,6 +7346,9 @@
         <v>0.8</v>
       </c>
       <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>1</v>
       </c>
     </row>
@@ -6748,7 +7361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView zoomScale="168" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="168" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
@@ -7996,7 +8609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69F834D-4F7F-E842-928A-E7665251B809}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="A1:M2"/>
     </sheetView>
   </sheetViews>

--- a/ams/cases/ieee39/ieee39_uced_esd1.xlsx
+++ b/ams/cases/ieee39/ieee39_uced_esd1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee39/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D905FA-731F-9642-95A5-D601526A09EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDEF068-44E5-074B-B897-855BA0766630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="ESD1" sheetId="22" r:id="rId6"/>
     <sheet name="Line" sheetId="5" r:id="rId7"/>
     <sheet name="Area" sheetId="7" r:id="rId8"/>
-    <sheet name="Region" sheetId="8" r:id="rId9"/>
+    <sheet name="Zone" sheetId="8" r:id="rId9"/>
     <sheet name="GCost" sheetId="6" r:id="rId10"/>
     <sheet name="EDTSlot" sheetId="12" r:id="rId11"/>
     <sheet name="UCTSlot" sheetId="13" r:id="rId12"/>
@@ -4511,7 +4511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35761997-D17D-4943-96DB-22901D50CC4D}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
@@ -12549,7 +12549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1076654-EF34-CC4B-89BB-5D9DC73428FE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/ams/cases/ieee39/ieee39_uced_esd1.xlsx
+++ b/ams/cases/ieee39/ieee39_uced_esd1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/ams/cases/ieee39/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDEF068-44E5-074B-B897-855BA0766630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F28376-E7B0-7949-BBE9-E34D428BEEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="14" r:id="rId1"/>
@@ -2005,7 +2005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2040,6 +2040,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3633,7 +3636,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3658,7 +3661,7 @@
         <v>204</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3680,8 +3683,8 @@
       <c r="F2" s="2">
         <v>0.05</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>201</v>
+      <c r="G2" s="17" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3703,8 +3706,8 @@
       <c r="F3" s="2">
         <v>0.05</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>202</v>
+      <c r="G3" s="17" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3954,7 +3957,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="F1" sqref="F1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3975,8 +3978,8 @@
       <c r="E1" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>11</v>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16">
@@ -3995,8 +3998,8 @@
       <c r="E2" s="6">
         <v>0.03</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>201</v>
+      <c r="F2" s="17" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16">
@@ -4015,8 +4018,8 @@
       <c r="E3" s="6">
         <v>0.03</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>202</v>
+      <c r="F3" s="17" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4232,8 +4235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC710CCF-6BF4-8444-9442-818618AF42C4}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4254,8 +4257,8 @@
       <c r="E1" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>11</v>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16">
@@ -4274,8 +4277,8 @@
       <c r="E2" s="6">
         <v>0.05</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>201</v>
+      <c r="F2" s="17" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16">
@@ -4294,8 +4297,8 @@
       <c r="E3" s="6">
         <v>0.05</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>202</v>
+      <c r="F3" s="17" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -12549,7 +12552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1076654-EF34-CC4B-89BB-5D9DC73428FE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+    <sheetView zoomScale="117" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
